--- a/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/QuestDetailSheet.xlsx
+++ b/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/QuestDetailSheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>questID</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>로라스의 요구대로 슬라임들을 처치했습니다. 로라스에게 보고하십시오</t>
+  </si>
+  <si>
+    <t>M_Slime</t>
+  </si>
+  <si>
+    <t>MOB_Slime</t>
   </si>
 </sst>
 </file>
@@ -443,13 +449,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -464,7 +469,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -473,7 +477,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -482,7 +485,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -491,7 +493,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -506,7 +507,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -521,7 +521,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -536,7 +535,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -545,7 +543,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -556,13 +553,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -714,20 +704,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1051,7 +1029,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1087,7 +1065,7 @@
       <c r="A2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -1104,7 +1082,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -1124,14 +1102,14 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D4" s="0">
         <v>1</v>
@@ -1144,7 +1122,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="0" t="s">

--- a/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/QuestDetailSheet.xlsx
+++ b/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/QuestDetailSheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>questID</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>MOB_Slime</t>
+  </si>
+  <si>
+    <t>NPC_Roras</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1032,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1069,7 +1072,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -1089,7 +1092,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D3" s="0">
         <v>0</v>
@@ -1129,7 +1132,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>

--- a/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/QuestDetailSheet.xlsx
+++ b/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/QuestDetailSheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.208.51986"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.257.54764"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
@@ -1029,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1086,68 +1086,48 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="0" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="0">
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="0">
         <v>1</v>
       </c>
       <c r="E4" s="0">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="0">
-        <v>2</v>
-      </c>
-      <c r="E5" s="0">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A6:A1048576 A4 A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A5:A1048575 A3 A4">
       <formula1>"Hunting, Collection, Interaction, Conversation"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
